--- a/gd/数值规划/宠物经验与投放设计.xlsx
+++ b/gd/数值规划/宠物经验与投放设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28320" yWindow="150" windowWidth="28410" windowHeight="12660" activeTab="3"/>
+    <workbookView xWindow="405" yWindow="240" windowWidth="28410" windowHeight="11625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -1465,11 +1465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113489024"/>
-        <c:axId val="113490560"/>
+        <c:axId val="102568320"/>
+        <c:axId val="102569856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113489024"/>
+        <c:axId val="102568320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113490560"/>
+        <c:crossAx val="102569856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113490560"/>
+        <c:axId val="102569856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113489024"/>
+        <c:crossAx val="102568320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,7 +1786,13 @@
       <sheetName val="玩家历程（未完成）"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="78">
+          <cell r="E78">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="26">
           <cell r="Q26">
@@ -3333,7 +3339,7 @@
   <dimension ref="A2:Q67"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3732,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:W152"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:E58"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4632,7 +4638,7 @@
         <v>44250</v>
       </c>
       <c r="E39" s="40">
-        <v>25160</v>
+        <v>44250</v>
       </c>
       <c r="F39" s="40"/>
       <c r="M39" t="s">
@@ -4659,7 +4665,7 @@
         <v>47590</v>
       </c>
       <c r="E40" s="40">
-        <v>27450</v>
+        <v>47590</v>
       </c>
       <c r="F40" s="40"/>
       <c r="V40">
@@ -4683,7 +4689,7 @@
         <v>51100</v>
       </c>
       <c r="E41" s="40">
-        <v>29880</v>
+        <v>51100</v>
       </c>
       <c r="F41" s="40"/>
       <c r="V41">
@@ -4707,7 +4713,7 @@
         <v>54800</v>
       </c>
       <c r="E42" s="40">
-        <v>32450</v>
+        <v>54800</v>
       </c>
       <c r="F42" s="40"/>
       <c r="V42">
@@ -4731,7 +4737,7 @@
         <v>58670</v>
       </c>
       <c r="E43" s="40">
-        <v>35170</v>
+        <v>58670</v>
       </c>
       <c r="F43" s="40"/>
       <c r="V43">
@@ -4755,7 +4761,7 @@
         <v>62730</v>
       </c>
       <c r="E44" s="40">
-        <v>38040</v>
+        <v>62730</v>
       </c>
       <c r="F44" s="40"/>
       <c r="V44">
@@ -4779,7 +4785,7 @@
         <v>66980</v>
       </c>
       <c r="E45" s="40">
-        <v>41060</v>
+        <v>66980</v>
       </c>
       <c r="F45" s="40"/>
       <c r="V45">
@@ -4803,7 +4809,7 @@
         <v>71430</v>
       </c>
       <c r="E46" s="40">
-        <v>44250</v>
+        <v>71430</v>
       </c>
       <c r="F46" s="40"/>
       <c r="V46">
@@ -4827,7 +4833,7 @@
         <v>76080</v>
       </c>
       <c r="E47" s="40">
-        <v>47600</v>
+        <v>76080</v>
       </c>
       <c r="F47" s="40"/>
       <c r="V47">
@@ -4851,7 +4857,7 @@
         <v>80940</v>
       </c>
       <c r="E48" s="40">
-        <v>51110</v>
+        <v>80940</v>
       </c>
       <c r="F48" s="40"/>
       <c r="V48">
@@ -4875,7 +4881,7 @@
         <v>86010</v>
       </c>
       <c r="E49" s="40">
-        <v>54800</v>
+        <v>86010</v>
       </c>
       <c r="F49" s="40"/>
       <c r="V49">
@@ -4899,7 +4905,7 @@
         <v>91300</v>
       </c>
       <c r="E50" s="40">
-        <v>58040</v>
+        <v>91300</v>
       </c>
       <c r="F50" s="40"/>
       <c r="V50">
@@ -4923,7 +4929,7 @@
         <v>96800</v>
       </c>
       <c r="E51" s="40">
-        <v>61950</v>
+        <v>96800</v>
       </c>
       <c r="F51" s="40"/>
       <c r="V51">
@@ -4947,7 +4953,7 @@
         <v>102530</v>
       </c>
       <c r="E52" s="40">
-        <v>66030</v>
+        <v>102530</v>
       </c>
       <c r="F52" s="40"/>
       <c r="V52">
@@ -4971,7 +4977,7 @@
         <v>108490</v>
       </c>
       <c r="E53" s="40">
-        <v>70300</v>
+        <v>108490</v>
       </c>
       <c r="F53" s="40"/>
       <c r="V53">
@@ -4995,7 +5001,7 @@
         <v>114690</v>
       </c>
       <c r="E54" s="40">
-        <v>74750</v>
+        <v>114690</v>
       </c>
       <c r="F54" s="40"/>
       <c r="V54">
@@ -5019,7 +5025,7 @@
         <v>121130</v>
       </c>
       <c r="E55" s="40">
-        <v>79400</v>
+        <v>121130</v>
       </c>
       <c r="F55" s="40"/>
       <c r="V55">
@@ -5043,7 +5049,7 @@
         <v>127810</v>
       </c>
       <c r="E56" s="40">
-        <v>84250</v>
+        <v>127810</v>
       </c>
       <c r="F56" s="40"/>
       <c r="V56">
@@ -5067,7 +5073,7 @@
         <v>134740</v>
       </c>
       <c r="E57" s="40">
-        <v>89300</v>
+        <v>134740</v>
       </c>
       <c r="F57" s="40"/>
       <c r="V57">
@@ -5091,7 +5097,7 @@
         <v>141930</v>
       </c>
       <c r="E58" s="40">
-        <v>94550</v>
+        <v>141930</v>
       </c>
       <c r="F58" s="40"/>
       <c r="V58">
@@ -6061,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J48" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6505,7 +6511,7 @@
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4">
-        <f>O19*L19</f>
+        <f t="shared" ref="Q19:Q66" si="6">O19*L19</f>
         <v>30</v>
       </c>
       <c r="R19" s="4"/>
@@ -6569,7 +6575,7 @@
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4">
-        <f>O20*L20</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="R20" s="4">
@@ -6625,7 +6631,7 @@
         <v>40</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" ref="M21:M30" si="6">M20*1.005</f>
+        <f t="shared" ref="M21:M30" si="7">M20*1.005</f>
         <v>3.0149999999999997</v>
       </c>
       <c r="N21" s="4">
@@ -6637,11 +6643,11 @@
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4">
-        <f>O21*L21</f>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" ref="R21:R66" si="7">ROUNDDOWN(Q21/$W$4,0)</f>
+        <f t="shared" ref="R21:R66" si="8">ROUNDDOWN(Q21/$W$4,0)</f>
         <v>2</v>
       </c>
     </row>
@@ -6693,7 +6699,7 @@
         <v>45</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0300749999999992</v>
       </c>
       <c r="N22" s="4">
@@ -6705,11 +6711,11 @@
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4">
-        <f>O22*L22</f>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -6761,7 +6767,7 @@
         <v>50</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0452253749999989</v>
       </c>
       <c r="N23" s="4">
@@ -6773,11 +6779,11 @@
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4">
-        <f>O23*L23</f>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -6829,7 +6835,7 @@
         <v>55</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0604515018749985</v>
       </c>
       <c r="N24" s="4">
@@ -6841,11 +6847,11 @@
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4">
-        <f>O24*L24</f>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -6897,7 +6903,7 @@
         <v>60</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0757537593843733</v>
       </c>
       <c r="N25" s="4">
@@ -6909,11 +6915,11 @@
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4">
-        <f>O25*L25</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -6965,7 +6971,7 @@
         <v>65</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0911325281812947</v>
       </c>
       <c r="N26" s="4">
@@ -6977,11 +6983,11 @@
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4">
-        <f>O26*L26</f>
+        <f t="shared" si="6"/>
         <v>520</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -7033,7 +7039,7 @@
         <v>70</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1065881908222011</v>
       </c>
       <c r="N27" s="4">
@@ -7045,11 +7051,11 @@
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4">
-        <f>O27*L27</f>
+        <f t="shared" si="6"/>
         <v>630</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -7101,7 +7107,7 @@
         <v>75</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1221211317763116</v>
       </c>
       <c r="N28" s="4">
@@ -7113,11 +7119,11 @@
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4">
-        <f>O28*L28</f>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -7169,7 +7175,7 @@
         <v>80</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.137731737435193</v>
       </c>
       <c r="N29" s="4">
@@ -7181,11 +7187,11 @@
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4">
-        <f>O29*L29</f>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -7237,7 +7243,7 @@
         <v>85</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1534203961223688</v>
       </c>
       <c r="N30" s="4">
@@ -7249,11 +7255,11 @@
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4">
-        <f>O30*L30</f>
+        <f t="shared" si="6"/>
         <v>510</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -7298,7 +7304,7 @@
         <v>9700</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" ref="K31:K65" si="8">ROUNDUP(J31/L31,0)</f>
+        <f t="shared" ref="K31:K65" si="9">ROUNDUP(J31/L31,0)</f>
         <v>108</v>
       </c>
       <c r="L31" s="29">
@@ -7316,11 +7322,11 @@
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4">
-        <f>O31*L31</f>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -7365,7 +7371,7 @@
         <v>12070</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="L32" s="29">
@@ -7383,11 +7389,11 @@
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4">
-        <f>O32*L32</f>
+        <f t="shared" si="6"/>
         <v>760</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -7432,7 +7438,7 @@
         <v>14870</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="L33" s="29">
@@ -7450,11 +7456,11 @@
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4">
-        <f>O33*L33</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
@@ -7499,7 +7505,7 @@
         <v>18150</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>173</v>
       </c>
       <c r="L34" s="29">
@@ -7517,11 +7523,11 @@
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4">
-        <f>O34*L34</f>
+        <f t="shared" si="6"/>
         <v>1155</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
@@ -7566,7 +7572,7 @@
         <v>21970</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="L35" s="29">
@@ -7584,11 +7590,11 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4">
-        <f>O35*L35</f>
+        <f t="shared" si="6"/>
         <v>1320</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
@@ -7633,7 +7639,7 @@
         <v>26390</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>230</v>
       </c>
       <c r="L36" s="29">
@@ -7651,11 +7657,11 @@
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4">
-        <f>O36*L36</f>
+        <f t="shared" si="6"/>
         <v>1495</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
@@ -7700,7 +7706,7 @@
         <v>31470</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>263</v>
       </c>
       <c r="L37" s="29">
@@ -7718,11 +7724,11 @@
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4">
-        <f>O37*L37</f>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
@@ -7767,7 +7773,7 @@
         <v>41570</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>333</v>
       </c>
       <c r="L38" s="29">
@@ -7788,11 +7794,11 @@
         <v>291</v>
       </c>
       <c r="Q38" s="4">
-        <f>O38*L38</f>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
@@ -7837,7 +7843,7 @@
         <v>52900</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>407</v>
       </c>
       <c r="L39" s="29">
@@ -7858,11 +7864,11 @@
         <v>303</v>
       </c>
       <c r="Q39" s="4">
-        <f>O39*L39</f>
+        <f t="shared" si="6"/>
         <v>2340</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
@@ -7907,7 +7913,7 @@
         <v>65560</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>486</v>
       </c>
       <c r="L40" s="29">
@@ -7928,11 +7934,11 @@
         <v>315</v>
       </c>
       <c r="Q40" s="4">
-        <f>O40*L40</f>
+        <f t="shared" si="6"/>
         <v>3105</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
     </row>
@@ -7977,7 +7983,7 @@
         <v>79660</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>569</v>
       </c>
       <c r="L41" s="29">
@@ -7998,11 +8004,11 @@
         <v>326</v>
       </c>
       <c r="Q41" s="4">
-        <f>O41*L41</f>
+        <f t="shared" si="6"/>
         <v>4620</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
     </row>
@@ -8047,7 +8053,7 @@
         <v>95300</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>658</v>
       </c>
       <c r="L42" s="29">
@@ -8068,11 +8074,11 @@
         <v>338</v>
       </c>
       <c r="Q42" s="4">
-        <f>O42*L42</f>
+        <f t="shared" si="6"/>
         <v>5365</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
     </row>
@@ -8117,7 +8123,7 @@
         <v>112600</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>751</v>
       </c>
       <c r="L43" s="29">
@@ -8138,11 +8144,11 @@
         <v>350</v>
       </c>
       <c r="Q43" s="4">
-        <f>O43*L43</f>
+        <f t="shared" si="6"/>
         <v>7050</v>
       </c>
       <c r="R43" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
     </row>
@@ -8187,7 +8193,7 @@
         <v>131680</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>850</v>
       </c>
       <c r="L44" s="29">
@@ -8208,11 +8214,11 @@
         <v>361</v>
       </c>
       <c r="Q44" s="4">
-        <f>O44*L44</f>
+        <f t="shared" si="6"/>
         <v>9765</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>162</v>
       </c>
     </row>
@@ -8257,7 +8263,7 @@
         <v>152660</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>955</v>
       </c>
       <c r="L45" s="29">
@@ -8279,11 +8285,11 @@
         <v>373</v>
       </c>
       <c r="Q45" s="4">
-        <f>O45*L45</f>
+        <f t="shared" si="6"/>
         <v>11200</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
     </row>
@@ -8328,7 +8334,7 @@
         <v>175670</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1065</v>
       </c>
       <c r="L46" s="29">
@@ -8350,11 +8356,11 @@
         <v>384</v>
       </c>
       <c r="Q46" s="4">
-        <f>O46*L46</f>
+        <f t="shared" si="6"/>
         <v>13530</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
     </row>
@@ -8388,19 +8394,19 @@
       </c>
       <c r="H47" s="4">
         <f t="shared" si="5"/>
-        <v>1.6929741572474233E-3</v>
+        <v>1.5460167333575846E-3</v>
       </c>
       <c r="I47" s="4">
         <f>'宠物计算经验表!'!E39</f>
-        <v>25160</v>
+        <v>44250</v>
       </c>
       <c r="J47" s="4">
         <f>SUM($I$18:I47)</f>
-        <v>200830</v>
+        <v>219920</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="8"/>
-        <v>1182</v>
+        <f t="shared" si="9"/>
+        <v>1294</v>
       </c>
       <c r="L47" s="29">
         <v>170</v>
@@ -8421,11 +8427,11 @@
         <v>396</v>
       </c>
       <c r="Q47" s="4">
-        <f>O47*L47</f>
+        <f t="shared" si="6"/>
         <v>17000</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>283</v>
       </c>
     </row>
@@ -8459,19 +8465,19 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" si="5"/>
-        <v>1.5332048361661119E-3</v>
+        <v>1.3083623042129265E-3</v>
       </c>
       <c r="I48" s="4">
         <f>'宠物计算经验表!'!E40</f>
-        <v>27450</v>
+        <v>47590</v>
       </c>
       <c r="J48" s="4">
         <f>SUM($I$18:I48)</f>
-        <v>228280</v>
+        <v>267510</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="8"/>
-        <v>1305</v>
+        <f t="shared" si="9"/>
+        <v>1529</v>
       </c>
       <c r="L48" s="29">
         <v>175</v>
@@ -8492,11 +8498,11 @@
         <v>408</v>
       </c>
       <c r="Q48" s="4">
-        <f>O48*L48</f>
+        <f t="shared" si="6"/>
         <v>26250</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>437</v>
       </c>
     </row>
@@ -8530,19 +8536,19 @@
       </c>
       <c r="H49" s="4">
         <f t="shared" si="5"/>
-        <v>1.3944840409048653E-3</v>
+        <v>1.1299080380402372E-3</v>
       </c>
       <c r="I49" s="4">
         <f>'宠物计算经验表!'!E41</f>
-        <v>29880</v>
+        <v>51100</v>
       </c>
       <c r="J49" s="4">
         <f>SUM($I$18:I49)</f>
-        <v>258160</v>
+        <v>318610</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="8"/>
-        <v>1435</v>
+        <f t="shared" si="9"/>
+        <v>1771</v>
       </c>
       <c r="L49" s="29">
         <v>180</v>
@@ -8563,11 +8569,11 @@
         <v>419</v>
       </c>
       <c r="Q49" s="4">
-        <f>O49*L49</f>
+        <f t="shared" si="6"/>
         <v>31500</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
     </row>
@@ -8588,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" ref="E50:E66" si="9">ROUNDUP(C50/$C$2,0)</f>
+        <f t="shared" ref="E50:E66" si="10">ROUNDUP(C50/$C$2,0)</f>
         <v>695</v>
       </c>
       <c r="F50" s="9">
@@ -8601,19 +8607,19 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" si="5"/>
-        <v>1.2731839922920753E-3</v>
+        <v>9.9086794676093298E-4</v>
       </c>
       <c r="I50" s="4">
         <f>'宠物计算经验表!'!E42</f>
-        <v>32450</v>
+        <v>54800</v>
       </c>
       <c r="J50" s="4">
         <f>SUM($I$18:I50)</f>
-        <v>290610</v>
+        <v>373410</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="8"/>
-        <v>1571</v>
+        <f t="shared" si="9"/>
+        <v>2019</v>
       </c>
       <c r="L50" s="29">
         <v>185</v>
@@ -8634,11 +8640,11 @@
         <v>431</v>
       </c>
       <c r="Q50" s="4">
-        <f>O50*L50</f>
+        <f t="shared" si="6"/>
         <v>37000</v>
       </c>
       <c r="R50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>616</v>
       </c>
     </row>
@@ -8659,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>796</v>
       </c>
       <c r="F51" s="9">
@@ -8672,19 +8678,19 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" si="5"/>
-        <v>1.1664313340290994E-3</v>
+        <v>8.7946676541381227E-4</v>
       </c>
       <c r="I51" s="4">
         <f>'宠物计算经验表!'!E43</f>
-        <v>35170</v>
+        <v>58670</v>
       </c>
       <c r="J51" s="4">
         <f>SUM($I$18:I51)</f>
-        <v>325780</v>
+        <v>432080</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="8"/>
-        <v>1715</v>
+        <f t="shared" si="9"/>
+        <v>2275</v>
       </c>
       <c r="L51" s="29">
         <v>190</v>
@@ -8705,11 +8711,11 @@
         <v>443</v>
       </c>
       <c r="Q51" s="4">
-        <f>O51*L51</f>
+        <f t="shared" si="6"/>
         <v>38000</v>
       </c>
       <c r="R51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>633</v>
       </c>
     </row>
@@ -8730,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>910</v>
       </c>
       <c r="F52" s="9">
@@ -8743,19 +8749,19 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" si="5"/>
-        <v>1.0719586608762574E-3</v>
+        <v>7.881813221236434E-4</v>
       </c>
       <c r="I52" s="4">
         <f>'宠物计算经验表!'!E44</f>
-        <v>38040</v>
+        <v>62730</v>
       </c>
       <c r="J52" s="4">
         <f>SUM($I$18:I52)</f>
-        <v>363820</v>
+        <v>494810</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="8"/>
-        <v>1866</v>
+        <f t="shared" si="9"/>
+        <v>2538</v>
       </c>
       <c r="L52" s="29">
         <v>195</v>
@@ -8776,11 +8782,11 @@
         <v>454</v>
       </c>
       <c r="Q52" s="4">
-        <f>O52*L52</f>
+        <f t="shared" si="6"/>
         <v>48750</v>
       </c>
       <c r="R52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>812</v>
       </c>
     </row>
@@ -8801,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1046</v>
       </c>
       <c r="F53" s="9">
@@ -8814,19 +8820,19 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" si="5"/>
-        <v>9.879470460383323E-4</v>
+        <v>7.1200982573559513E-4</v>
       </c>
       <c r="I53" s="4">
         <f>'宠物计算经验表!'!E45</f>
-        <v>41060</v>
+        <v>66980</v>
       </c>
       <c r="J53" s="4">
         <f>SUM($I$18:I53)</f>
-        <v>404880</v>
+        <v>561790</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="8"/>
-        <v>2025</v>
+        <f t="shared" si="9"/>
+        <v>2809</v>
       </c>
       <c r="L53" s="29">
         <v>200</v>
@@ -8847,11 +8853,11 @@
         <v>466</v>
       </c>
       <c r="Q53" s="4">
-        <f>O53*L53</f>
+        <f t="shared" si="6"/>
         <v>60000</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -8872,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1205</v>
       </c>
       <c r="F54" s="9">
@@ -8885,19 +8891,19 @@
       </c>
       <c r="H54" s="4">
         <f t="shared" si="5"/>
-        <v>9.1287600472023686E-4</v>
+        <v>6.4748428666182366E-4</v>
       </c>
       <c r="I54" s="4">
         <f>'宠物计算经验表!'!E46</f>
-        <v>44250</v>
+        <v>71430</v>
       </c>
       <c r="J54" s="4">
         <f>SUM($I$18:I54)</f>
-        <v>449130</v>
+        <v>633220</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="8"/>
-        <v>2191</v>
+        <f t="shared" si="9"/>
+        <v>3089</v>
       </c>
       <c r="L54" s="29">
         <v>205</v>
@@ -8918,11 +8924,11 @@
         <v>478</v>
       </c>
       <c r="Q54" s="4">
-        <f>O54*L54</f>
+        <f t="shared" si="6"/>
         <v>71750</v>
       </c>
       <c r="R54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1195</v>
       </c>
     </row>
@@ -8943,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1395</v>
       </c>
       <c r="F55" s="9">
@@ -8956,19 +8962,19 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" si="5"/>
-        <v>8.4552976466088217E-4</v>
+        <v>5.9213308896094745E-4</v>
       </c>
       <c r="I55" s="4">
         <f>'宠物计算经验表!'!E47</f>
-        <v>47600</v>
+        <v>76080</v>
       </c>
       <c r="J55" s="4">
         <f>SUM($I$18:I55)</f>
-        <v>496730</v>
+        <v>709300</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" si="8"/>
-        <v>2366</v>
+        <f t="shared" si="9"/>
+        <v>3378</v>
       </c>
       <c r="L55" s="29">
         <v>210</v>
@@ -8989,11 +8995,11 @@
         <v>489</v>
       </c>
       <c r="Q55" s="4">
-        <f>O55*L55</f>
+        <f t="shared" si="6"/>
         <v>78750</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1312</v>
       </c>
     </row>
@@ -9014,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1616</v>
       </c>
       <c r="F56" s="9">
@@ -9027,19 +9033,19 @@
       </c>
       <c r="H56" s="4">
         <f t="shared" si="5"/>
-        <v>7.8490070093457942E-4</v>
+        <v>5.4413848957278802E-4</v>
       </c>
       <c r="I56" s="4">
         <f>'宠物计算经验表!'!E48</f>
-        <v>51110</v>
+        <v>80940</v>
       </c>
       <c r="J56" s="4">
         <f>SUM($I$18:I56)</f>
-        <v>547840</v>
+        <v>790240</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="8"/>
-        <v>2549</v>
+        <f t="shared" si="9"/>
+        <v>3676</v>
       </c>
       <c r="L56" s="29">
         <v>215</v>
@@ -9060,11 +9066,11 @@
         <v>501</v>
       </c>
       <c r="Q56" s="4">
-        <f>O56*L56</f>
+        <f t="shared" si="6"/>
         <v>91375</v>
       </c>
       <c r="R56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1522</v>
       </c>
     </row>
@@ -9085,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1840</v>
       </c>
       <c r="F57" s="9">
@@ -9098,19 +9104,19 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" si="5"/>
-        <v>7.3012080180538967E-4</v>
+        <v>5.0213980028530674E-4</v>
       </c>
       <c r="I57" s="4">
         <f>'宠物计算经验表!'!E49</f>
-        <v>54800</v>
+        <v>86010</v>
       </c>
       <c r="J57" s="4">
         <f>SUM($I$18:I57)</f>
-        <v>602640</v>
+        <v>876250</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" si="8"/>
-        <v>2740</v>
+        <f t="shared" si="9"/>
+        <v>3983</v>
       </c>
       <c r="L57" s="29">
         <v>220</v>
@@ -9131,11 +9137,11 @@
         <v>513</v>
       </c>
       <c r="Q57" s="4">
-        <f>O57*L57</f>
+        <f t="shared" si="6"/>
         <v>99000</v>
       </c>
       <c r="R57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1650</v>
       </c>
     </row>
@@ -9156,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2071</v>
       </c>
       <c r="F58" s="9">
@@ -9169,19 +9175,19 @@
       </c>
       <c r="H58" s="4">
         <f t="shared" si="5"/>
-        <v>6.8111642550099897E-4</v>
+        <v>4.6509224329492014E-4</v>
       </c>
       <c r="I58" s="4">
         <f>'宠物计算经验表!'!E50</f>
-        <v>58040</v>
+        <v>91300</v>
       </c>
       <c r="J58" s="4">
         <f>SUM($I$18:I58)</f>
-        <v>660680</v>
+        <v>967550</v>
       </c>
       <c r="K58" s="4">
-        <f t="shared" si="8"/>
-        <v>2937</v>
+        <f t="shared" si="9"/>
+        <v>4301</v>
       </c>
       <c r="L58" s="29">
         <v>225</v>
@@ -9202,11 +9208,11 @@
         <v>524</v>
       </c>
       <c r="Q58" s="4">
-        <f>O58*L58</f>
+        <f t="shared" si="6"/>
         <v>112500</v>
       </c>
       <c r="R58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1875</v>
       </c>
     </row>
@@ -9227,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2317</v>
       </c>
       <c r="F59" s="9">
@@ -9240,19 +9246,19 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" si="5"/>
-        <v>6.3656366328549883E-4</v>
+        <v>4.3218865974538453E-4</v>
       </c>
       <c r="I59" s="4">
         <f>'宠物计算经验表!'!E51</f>
-        <v>61950</v>
+        <v>96800</v>
       </c>
       <c r="J59" s="4">
         <f>SUM($I$18:I59)</f>
-        <v>722630</v>
+        <v>1064350</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" si="8"/>
-        <v>3142</v>
+        <f t="shared" si="9"/>
+        <v>4628</v>
       </c>
       <c r="L59" s="29">
         <v>230</v>
@@ -9273,11 +9279,11 @@
         <v>536</v>
       </c>
       <c r="Q59" s="4">
-        <f>O59*L59</f>
+        <f t="shared" si="6"/>
         <v>126500</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2108</v>
       </c>
     </row>
@@ -9298,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2578</v>
       </c>
       <c r="F60" s="9">
@@ -9311,19 +9317,19 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" si="5"/>
-        <v>5.9594755661501785E-4</v>
+        <v>4.0278349101878513E-4</v>
       </c>
       <c r="I60" s="4">
         <f>'宠物计算经验表!'!E52</f>
-        <v>66030</v>
+        <v>102530</v>
       </c>
       <c r="J60" s="4">
         <f>SUM($I$18:I60)</f>
-        <v>788660</v>
+        <v>1166880</v>
       </c>
       <c r="K60" s="4">
-        <f t="shared" si="8"/>
-        <v>3356</v>
+        <f t="shared" si="9"/>
+        <v>4966</v>
       </c>
       <c r="L60" s="29">
         <v>235</v>
@@ -9344,11 +9350,11 @@
         <v>548</v>
       </c>
       <c r="Q60" s="4">
-        <f>O60*L60</f>
+        <f t="shared" si="6"/>
         <v>141000</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2350</v>
       </c>
     </row>
@@ -9369,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2859</v>
       </c>
       <c r="F61" s="9">
@@ -9382,19 +9388,19 @@
       </c>
       <c r="H61" s="4">
         <f t="shared" si="5"/>
-        <v>5.5881531153953619E-4</v>
+        <v>3.7636136964175104E-4</v>
       </c>
       <c r="I61" s="4">
         <f>'宠物计算经验表!'!E53</f>
-        <v>70300</v>
+        <v>108490</v>
       </c>
       <c r="J61" s="4">
         <f>SUM($I$18:I61)</f>
-        <v>858960</v>
+        <v>1275370</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" si="8"/>
-        <v>3579</v>
+        <f t="shared" si="9"/>
+        <v>5315</v>
       </c>
       <c r="L61" s="29">
         <v>240</v>
@@ -9415,11 +9421,11 @@
         <v>559</v>
       </c>
       <c r="Q61" s="4">
-        <f>O61*L61</f>
+        <f t="shared" si="6"/>
         <v>168000</v>
       </c>
       <c r="R61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2800</v>
       </c>
     </row>
@@ -9440,7 +9446,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3168</v>
       </c>
       <c r="F62" s="9">
@@ -9453,19 +9459,19 @@
       </c>
       <c r="H62" s="4">
         <f t="shared" si="5"/>
-        <v>5.2478821047220227E-4</v>
+        <v>3.525027696646188E-4</v>
       </c>
       <c r="I62" s="4">
         <f>'宠物计算经验表!'!E54</f>
-        <v>74750</v>
+        <v>114690</v>
       </c>
       <c r="J62" s="4">
         <f>SUM($I$18:I62)</f>
-        <v>933710</v>
+        <v>1390060</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="8"/>
-        <v>3812</v>
+        <f t="shared" si="9"/>
+        <v>5674</v>
       </c>
       <c r="L62" s="29">
         <v>245</v>
@@ -9486,11 +9492,11 @@
         <v>571</v>
       </c>
       <c r="Q62" s="4">
-        <f>O62*L62</f>
+        <f t="shared" si="6"/>
         <v>220500</v>
       </c>
       <c r="R62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3675</v>
       </c>
     </row>
@@ -9511,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3503</v>
       </c>
       <c r="F63" s="9">
@@ -9524,19 +9530,19 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" si="5"/>
-        <v>4.935298240072648E-4</v>
+        <v>3.3086507983774374E-4</v>
       </c>
       <c r="I63" s="4">
         <f>'宠物计算经验表!'!E55</f>
-        <v>79400</v>
+        <v>121130</v>
       </c>
       <c r="J63" s="4">
         <f>SUM($I$18:I63)</f>
-        <v>1013110</v>
+        <v>1511190</v>
       </c>
       <c r="K63" s="4">
-        <f t="shared" si="8"/>
-        <v>4053</v>
+        <f t="shared" si="9"/>
+        <v>6045</v>
       </c>
       <c r="L63" s="29">
         <v>250</v>
@@ -9557,11 +9563,11 @@
         <v>583</v>
       </c>
       <c r="Q63" s="4">
-        <f>O63*L63</f>
+        <f t="shared" si="6"/>
         <v>275000</v>
       </c>
       <c r="R63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4583</v>
       </c>
     </row>
@@ -9582,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3890</v>
       </c>
       <c r="F64" s="9">
@@ -9595,19 +9601,19 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" si="5"/>
-        <v>4.647517678792739E-4</v>
+        <v>3.1116534472239171E-4</v>
       </c>
       <c r="I64" s="4">
         <f>'宠物计算经验表!'!E56</f>
-        <v>84250</v>
+        <v>127810</v>
       </c>
       <c r="J64" s="4">
         <f>SUM($I$18:I64)</f>
-        <v>1097360</v>
+        <v>1639000</v>
       </c>
       <c r="K64" s="4">
-        <f t="shared" si="8"/>
-        <v>4304</v>
+        <f t="shared" si="9"/>
+        <v>6428</v>
       </c>
       <c r="L64" s="29">
         <v>255</v>
@@ -9628,11 +9634,11 @@
         <v>594</v>
       </c>
       <c r="Q64" s="4">
-        <f>O64*L64</f>
+        <f t="shared" si="6"/>
         <v>331500</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5525</v>
       </c>
     </row>
@@ -9653,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4326</v>
       </c>
       <c r="F65" s="9">
@@ -9666,19 +9672,19 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" si="5"/>
-        <v>4.3820470901521918E-4</v>
+        <v>2.9316585294349791E-4</v>
       </c>
       <c r="I65" s="4">
         <f>'宠物计算经验表!'!E57</f>
-        <v>89300</v>
+        <v>134740</v>
       </c>
       <c r="J65" s="4">
         <f>SUM($I$18:I65)</f>
-        <v>1186660</v>
+        <v>1773740</v>
       </c>
       <c r="K65" s="4">
-        <f t="shared" si="8"/>
-        <v>4565</v>
+        <f t="shared" si="9"/>
+        <v>6823</v>
       </c>
       <c r="L65" s="29">
         <v>260</v>
@@ -9699,11 +9705,11 @@
         <v>606</v>
       </c>
       <c r="Q65" s="4">
-        <f>O65*L65</f>
+        <f t="shared" si="6"/>
         <v>390000</v>
       </c>
       <c r="R65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6500</v>
       </c>
       <c r="S65" s="8"/>
@@ -9726,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4862</v>
       </c>
       <c r="F66" s="9">
@@ -9739,19 +9745,19 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" si="5"/>
-        <v>4.1367145120628154E-4</v>
+        <v>2.7666560524516225E-4</v>
       </c>
       <c r="I66" s="4">
         <f>'宠物计算经验表!'!E58</f>
-        <v>94550</v>
+        <v>141930</v>
       </c>
       <c r="J66" s="4">
         <f>SUM($I$18:I66)</f>
-        <v>1281210</v>
+        <v>1915670</v>
       </c>
       <c r="K66" s="4">
         <f>ROUNDUP(J66/L66,0)</f>
-        <v>4835</v>
+        <v>7229</v>
       </c>
       <c r="L66" s="29">
         <v>265</v>
@@ -9772,11 +9778,11 @@
         <v>617</v>
       </c>
       <c r="Q66" s="4">
-        <f>O66*L66</f>
+        <f t="shared" si="6"/>
         <v>450500</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7508</v>
       </c>
       <c r="S66" s="8"/>
@@ -9795,11 +9801,11 @@
         <v>#REF!</v>
       </c>
       <c r="D67" s="5" t="e">
-        <f t="shared" ref="D67:D98" si="10">B67*$C$2</f>
+        <f t="shared" ref="D67:D98" si="11">B67*$C$2</f>
         <v>#REF!</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E98" si="11">$C$3*(1+(A67-1)*$C$4)</f>
+        <f t="shared" ref="E67:E98" si="12">$C$3*(1+(A67-1)*$C$4)</f>
         <v>510</v>
       </c>
       <c r="F67" s="4"/>
@@ -9838,11 +9844,11 @@
         <v>#REF!</v>
       </c>
       <c r="D68" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="F68" s="4"/>
@@ -9881,11 +9887,11 @@
         <v>#REF!</v>
       </c>
       <c r="D69" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>530</v>
       </c>
       <c r="F69" s="4"/>
@@ -9923,11 +9929,11 @@
         <v>#REF!</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>52.044462888682325</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>540</v>
       </c>
       <c r="F70" s="4"/>
@@ -9965,11 +9971,11 @@
         <v>#REF!</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.203476586903918</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>550</v>
       </c>
       <c r="F71" s="4"/>
@@ -10007,11 +10013,11 @@
         <v>#REF!</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>61.156885218531023</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>560</v>
       </c>
       <c r="F72" s="4"/>
@@ -10049,11 +10055,11 @@
         <v>#REF!</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>66.104715263032162</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>570</v>
       </c>
       <c r="F73" s="4"/>
@@ -10091,11 +10097,11 @@
         <v>#REF!</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>70.49913450696323</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>580</v>
       </c>
       <c r="F74" s="4"/>
@@ -10133,11 +10139,11 @@
         <v>#REF!</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>74.479256685321459</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>590</v>
       </c>
       <c r="F75" s="4"/>
@@ -10175,11 +10181,11 @@
         <v>#REF!</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>77.658893126229572</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="F76" s="4"/>
@@ -10217,11 +10223,11 @@
         <v>#REF!</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80.43453821290214</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>610</v>
       </c>
       <c r="F77" s="4"/>
@@ -10259,11 +10265,11 @@
         <v>#REF!</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83.426632367876962</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>620</v>
       </c>
       <c r="F78" s="4"/>
@@ -10301,11 +10307,11 @@
         <v>#REF!</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.86050102111777</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>630</v>
       </c>
       <c r="F79" s="4"/>
@@ -10343,11 +10349,11 @@
         <v>#REF!</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90.845216144356684</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>640</v>
       </c>
       <c r="F80" s="4"/>
@@ -10385,11 +10391,11 @@
         <v>#REF!</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>95.399926967445879</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>650</v>
       </c>
       <c r="F81" s="4"/>
@@ -10427,11 +10433,11 @@
         <v>#REF!</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100.67036365250574</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>660</v>
       </c>
       <c r="F82" s="4"/>
@@ -10469,11 +10475,11 @@
         <v>#REF!</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>106.05464845016681</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>670</v>
       </c>
       <c r="F83" s="4"/>
@@ -10511,11 +10517,11 @@
         <v>#REF!</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>110.7828119522096</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>680</v>
       </c>
       <c r="F84" s="4"/>
@@ -10553,11 +10559,11 @@
         <v>#REF!</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>115.04619493677781</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>690</v>
       </c>
       <c r="F85" s="4"/>
@@ -10595,11 +10601,11 @@
         <v>#REF!</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>118.60593313137235</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>700</v>
       </c>
       <c r="F86" s="4"/>
@@ -10637,11 +10643,11 @@
         <v>#REF!</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121.68165349643846</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>710</v>
       </c>
       <c r="F87" s="4"/>
@@ -10679,11 +10685,11 @@
         <v>#REF!</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>125.46760937134198</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
       <c r="F88" s="4"/>
@@ -10721,11 +10727,11 @@
         <v>#REF!</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>129.82937534083106</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>730</v>
       </c>
       <c r="F89" s="4"/>
@@ -10763,11 +10769,11 @@
         <v>#REF!</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>134.88625886958141</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>740</v>
       </c>
       <c r="F90" s="4"/>
@@ -10805,11 +10811,11 @@
         <v>#REF!</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140.6193223440477</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>750</v>
       </c>
       <c r="F91" s="4"/>
@@ -10847,11 +10853,11 @@
         <v>#REF!</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>147.26266360949802</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>760</v>
       </c>
       <c r="F92" s="4"/>
@@ -10889,11 +10895,11 @@
         <v>#REF!</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>152.8552082790616</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>770</v>
       </c>
       <c r="F93" s="4"/>
@@ -10931,11 +10937,11 @@
         <v>#REF!</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>157.67126015391216</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>780</v>
       </c>
       <c r="F94" s="4"/>
@@ -10973,11 +10979,11 @@
         <v>#REF!</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>162.09041575684967</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>790</v>
       </c>
       <c r="F95" s="4"/>
@@ -11015,11 +11021,11 @@
         <v>#REF!</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>165.69650369565662</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>800</v>
       </c>
       <c r="F96" s="4"/>
@@ -11057,11 +11063,11 @@
         <v>#REF!</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>169.13606220283501</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>810</v>
       </c>
       <c r="F97" s="4"/>
@@ -11099,11 +11105,11 @@
         <v>#REF!</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>173.30221901253691</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>820</v>
       </c>
       <c r="F98" s="4"/>
@@ -11141,11 +11147,11 @@
         <v>#REF!</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" ref="D99:D116" si="12">B99*$C$2</f>
+        <f t="shared" ref="D99:D116" si="13">B99*$C$2</f>
         <v>177.97060273588031</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" ref="E99:E116" si="13">$C$3*(1+(A99-1)*$C$4)</f>
+        <f t="shared" ref="E99:E116" si="14">$C$3*(1+(A99-1)*$C$4)</f>
         <v>830</v>
       </c>
       <c r="F99" s="4"/>
@@ -11183,11 +11189,11 @@
         <v>#REF!</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>183.17917505545373</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>840</v>
       </c>
       <c r="F100" s="4"/>
@@ -11225,11 +11231,11 @@
         <v>#REF!</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>189.22662781743759</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>850</v>
       </c>
       <c r="F101" s="4"/>
@@ -11267,11 +11273,11 @@
         <v>#REF!</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>195.93313402881307</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>860</v>
       </c>
       <c r="F102" s="4"/>
@@ -11309,11 +11315,11 @@
         <v>#REF!</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>203.22183520204658</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>870</v>
       </c>
       <c r="F103" s="4"/>
@@ -11351,11 +11357,11 @@
         <v>#REF!</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>209.50838224686916</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>880</v>
       </c>
       <c r="F104" s="4"/>
@@ -11393,11 +11399,11 @@
         <v>#REF!</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>214.82481908787679</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>890</v>
       </c>
       <c r="F105" s="4"/>
@@ -11435,11 +11441,11 @@
         <v>#REF!</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>219.62789320802935</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
       <c r="F106" s="4"/>
@@ -11477,11 +11483,11 @@
         <v>#REF!</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>223.8108766588058</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>910</v>
       </c>
       <c r="F107" s="4"/>
@@ -11519,11 +11525,11 @@
         <v>#REF!</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>233.15213823603369</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>920</v>
       </c>
       <c r="F108" s="4"/>
@@ -11561,11 +11567,11 @@
         <v>#REF!</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>244.33971882523269</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>930</v>
       </c>
       <c r="F109" s="4"/>
@@ -11603,11 +11609,11 @@
         <v>#REF!</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>255.93186015670526</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>940</v>
       </c>
       <c r="F110" s="4"/>
@@ -11645,11 +11651,11 @@
         <v>#REF!</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>268.26829279193925</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>950</v>
       </c>
       <c r="F111" s="4"/>
@@ -11687,11 +11693,11 @@
         <v>#REF!</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>281.28367881998872</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>960</v>
       </c>
       <c r="F112" s="4"/>
@@ -11729,11 +11735,11 @@
         <v>#REF!</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>293.40240033294469</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>970</v>
       </c>
       <c r="F113" s="4"/>
@@ -11771,11 +11777,11 @@
         <v>#REF!</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>305.05346940030574</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>980</v>
       </c>
       <c r="F114" s="4"/>
@@ -11813,11 +11819,11 @@
         <v>#REF!</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>316.30120602912876</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>990</v>
       </c>
       <c r="F115" s="4"/>
@@ -11855,11 +11861,11 @@
         <v>#REF!</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>326.71032132197513</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="F116" s="4"/>
